--- a/output/date/2021-12-19/2021-12-19_스탠드조명.xlsx
+++ b/output/date/2021-12-19/2021-12-19_스탠드조명.xlsx
@@ -2915,22 +2915,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>LED 코너 플로어 램프 거실 서 장식 분위기 램프 침실 장식 스탠드 조명 실내 조명</t>
+          <t>캥거 장스탠드 만달라키 노을 석양 조명 선셋 무드등 MEL001</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24687593897</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28236356554</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2468759/24687593897.20211008035055.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2823635/28236356554.20210801004606.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11100</t>
+          <t>22000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -2944,8 +2944,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>캥거</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>델로나</t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -2973,45 +2981,37 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>마켓비 장스탠드 엔틱 롱 원룸 장스텐드 조명 등 거실</t>
+          <t>LED 코너 플로어 램프 거실 서 장식 분위기 램프 침실 장식 스탠드 조명 실내 조명</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82667453108</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24687593897</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8266745/82667453108.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2468759/24687593897.20211008035055.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>39900</t>
+          <t>11100</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>해봄스토어</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>마켓비</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>마켓비</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -3039,43 +3039,43 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>파파조명 파파 로델리 장스탠드 인테리어스탠드 무드등 조명</t>
+          <t>마켓비 장스탠드 엔틱 롱 원룸 장스텐드 조명 등 거실</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24114394000</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82667453108</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2411439/24114394000.20200910210311.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8266745/82667453108.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>24146</t>
+          <t>39900</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>해봄스토어</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>파파조명</t>
+          <t>마켓비</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>베스트조명</t>
+          <t>마켓비</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3105,43 +3105,43 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>이케아 무드등 LED 장스탠드 조명 식물등 독서등 거실 인테리어</t>
+          <t>파파조명 파파 로델리 장스탠드 인테리어스탠드 무드등 조명</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12543796442</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24114394000</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1254379/12543796442.11.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2411439/24114394000.20200910210311.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>24146</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>바이더리빙</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>이케아</t>
+          <t>파파조명</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>이케아</t>
+          <t>베스트조명</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3171,28 +3171,28 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>이케아 테르티알 포르소 책상 집게 스탠드 조명 LED 고정 공부 학습용 독서등 작업등</t>
+          <t>이케아 무드등 LED 장스탠드 조명 식물등 독서등 거실 인테리어</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82252449479</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12543796442</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8225244/82252449479.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1254379/12543796442.11.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>24290</t>
+          <t>9000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>빅코스트몰</t>
+          <t>바이더리빙</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>단스탠드</t>
+          <t>장스탠드</t>
         </is>
       </c>
     </row>
@@ -3237,37 +3237,45 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>거실 스탠드조명 북유럽 창의적이고 개성 서재 골드 모던 심플</t>
+          <t>이케아 테르티알 포르소 책상 집게 스탠드 조명 LED 고정 공부 학습용 독서등 작업등</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17820145800</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82252449479</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1782014/17820145800.20200114013210.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8225244/82252449479.1.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>95000</t>
+          <t>24290</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>빅코스트몰</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>이케아</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>이케아</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -3285,7 +3293,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>장스탠드</t>
+          <t>단스탠드</t>
         </is>
       </c>
     </row>
@@ -3295,45 +3303,37 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>[오늘 출발] 이케아 플로어 스탠드 조명 인테리어 레르스타 거실 침실 장스탠드 독서등</t>
+          <t>거실 스탠드조명 북유럽 창의적이고 개성 서재 골드 모던 심플</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=8365733044</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17820145800</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8365733/8365733044.7.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1782014/17820145800.20200114013210.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>15900</t>
+          <t>95000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>달콩이네 리빙</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>이케아</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>이케아</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -3361,37 +3361,45 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>활장스탠드 장스탠드 거실등 스탠드조명 플로어스탠드</t>
+          <t>[오늘 출발] 이케아 플로어 스탠드 조명 인테리어 레르스타 거실 침실 장스탠드 독서등</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29755495858</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=8365733044</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2975549/29755495858.20211119232453.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8365733/8365733044.7.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>98750</t>
+          <t>15900</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>달콩이네 리빙</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>이케아</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>이케아</t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -3419,45 +3427,37 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>마켓비 장스탠드 침실 거실 조명 램프 롱 활장 플로어 독서등 무드등 인테리어</t>
+          <t>활장스탠드 장스탠드 거실등 스탠드조명 플로어스탠드</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82685221109</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29755495858</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8268522/82685221109.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2975549/29755495858.20211119232453.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>17400</t>
+          <t>98750</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>나누벨</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>마켓비</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>마켓비</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -3485,28 +3485,28 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>마켓비 단스탠드 라탄 이케아 조명 책상 미니 독서등 침대 침실 우드 엔틱 무드등 갓 램프</t>
+          <t>마켓비 장스탠드 침실 거실 조명 램프 롱 활장 플로어 독서등 무드등 인테리어</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82821838052</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82685221109</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8282183/82821838052.2.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8268522/82685221109.1.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>6900</t>
+          <t>17400</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>오펜퍼니처</t>
+          <t>나누벨</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>단스탠드</t>
+          <t>장스탠드</t>
         </is>
       </c>
     </row>
@@ -3551,28 +3551,28 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>IKEA 이케아 ÅRSTID 오르스티드 플로어스탠드 장스탠드 거실조명 니켈도금, 황동</t>
+          <t>마켓비 단스탠드 라탄 이케아 조명 책상 미니 독서등 침대 침실 우드 엔틱 무드등 갓 램프</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=81284041579</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82821838052</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8128404/81284041579.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8282183/82821838052.2.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>45330</t>
+          <t>6900</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>이케아데이</t>
+          <t>오펜퍼니처</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3582,12 +3582,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>이케아</t>
+          <t>마켓비</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>이케아</t>
+          <t>마켓비</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>장스탠드</t>
+          <t>단스탠드</t>
         </is>
       </c>
     </row>
@@ -3617,28 +3617,28 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>루이스 폴센 판텔라  플로어 고급형 스탠드 조명 램프 장스탠드  무드등 수입 조명</t>
+          <t>IKEA 이케아 ÅRSTID 오르스티드 플로어스탠드 장스탠드 거실조명 니켈도금, 황동</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29906153623</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=81284041579</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2990615/29906153623.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8128404/81284041579.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>170000</t>
+          <t>45330</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>LAPERTA</t>
+          <t>이케아데이</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -3646,8 +3646,16 @@
           <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>이케아</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>이케아</t>
+        </is>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -3675,28 +3683,28 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>앤틱 거실 스탠드 조명 등 바로니스 플로어 장스탠드 LED 전등 결혼선물 집들이선물</t>
+          <t>루이스 폴센 판텔라  플로어 고급형 스탠드 조명 램프 장스탠드  무드등 수입 조명</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11025477023</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29906153623</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1102547/11025477023.11.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2990615/29906153623.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>128000</t>
+          <t>170000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>스탠드나라</t>
+          <t>LAPERTA</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -3705,11 +3713,7 @@
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>루미앤</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -3737,28 +3741,28 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>LED독서등 눈보호 LED스탠드 조명 책상 공부 스탠드 미니</t>
+          <t>앤틱 거실 스탠드 조명 등 바로니스 플로어 장스탠드 LED 전등 결혼선물 집들이선물</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=81880952226</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11025477023</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8188095/81880952226.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1102547/11025477023.11.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>27800</t>
+          <t>128000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>신바람스토어</t>
+          <t>스탠드나라</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3766,14 +3770,10 @@
           <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>듀플렉스</t>
-        </is>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>듀플렉스</t>
+          <t>루미앤</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3793,7 +3793,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>단스탠드</t>
+          <t>장스탠드</t>
         </is>
       </c>
     </row>
@@ -3803,37 +3803,45 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>북유럽 거실 침실 스탠드조명 심플 인테리어 거실 소파등 북유럽 심플 스탠드 이케아 장식</t>
+          <t>LED독서등 눈보호 LED스탠드 조명 책상 공부 스탠드 미니</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22455317786</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=81880952226</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2245531/22455317786.20200411155831.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8188095/81880952226.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>73210</t>
+          <t>27800</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>신바람스토어</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>듀플렉스</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>듀플렉스</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -3851,7 +3859,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>장스탠드</t>
+          <t>단스탠드</t>
         </is>
       </c>
     </row>
@@ -3861,22 +3869,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>캥거 장스탠드 만달라키 노을 석양 조명 선셋 무드등 MEL001</t>
+          <t>북유럽 거실 침실 스탠드조명 심플 인테리어 거실 소파등 북유럽 심플 스탠드 이케아 장식</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28236356554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22455317786</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2823635/28236356554.20210801004606.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2245531/22455317786.20200411155831.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>22000</t>
+          <t>73210</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -3890,16 +3898,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>캥거</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>델로나</t>
-        </is>
-      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -4597,22 +4597,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>이케아 SIMRISHAMN 심리스함 플로어스탠드 전구미포함 조명 장스탠드 거실등</t>
+          <t>벨라 장스탠드 거실스탠드 플로어 조명 무드등 인테리어스탠드</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28793599790</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28891592179</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2879359/28793599790.20211108050557.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2889159/28891592179.20210917221150.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>98450</t>
+          <t>15770</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -4626,16 +4626,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>이케아</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>이케아</t>
-        </is>
-      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -4663,22 +4655,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>벨라 장스탠드 거실스탠드 플로어 조명 무드등 인테리어스탠드</t>
+          <t>이케아 SIMRISHAMN 심리스함 플로어스탠드 전구미포함 조명 장스탠드 거실등</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28891592179</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28793599790</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2889159/28891592179.20210917221150.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2879359/28793599790.20211108050557.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>15770</t>
+          <t>98450</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -4692,8 +4684,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>이케아</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>이케아</t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -5723,45 +5723,41 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>이케아 NYMANE 뉘모네 플로어스탠드3등 조명 거실등 전구미포함</t>
+          <t>라루즈 라르고 밝기조절 장스탠드 무드등 식탁 스탠드조명 거실등 인테리어 조명 LED 디밍</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27063760142</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82251549610</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2706376/27063760142.20210507193639.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8225154/82251549610.2.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>61340</t>
+          <t>48500</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>라루즈</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>이케아</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>이케아</t>
-        </is>
-      </c>
+          <t>라루즈</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -5789,22 +5785,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>거실스탠드조명 플로어 램프 ins 북유럽의 창의적인 아이덴티티_ 000015350</t>
+          <t>파파 튤립 장스탠드 인테리어스탠드 조명</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26186427462</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27109699411</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2618642/26186427462.20210228195326.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2710969/27109699411.20210511183001.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>39690</t>
+          <t>26300</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -5847,22 +5843,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>파파 튤립 장스탠드 인테리어스탠드 조명</t>
+          <t>거실스탠드조명 플로어 램프 ins 북유럽의 창의적인 아이덴티티_ 000015350</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27109699411</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26186427462</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2710969/27109699411.20210511183001.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2618642/26186427462.20210228195326.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>26300</t>
+          <t>39690</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -5905,41 +5901,45 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>라루즈 라르고 밝기조절 장스탠드 무드등 식탁 스탠드조명 거실등 인테리어 조명 LED 디밍</t>
+          <t>이케아 NYMANE 뉘모네 플로어스탠드3등 조명 거실등 전구미포함</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82251549610</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27063760142</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8225154/82251549610.2.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2706376/27063760142.20210507193639.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>48500</t>
+          <t>61340</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>라루즈</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>라루즈</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr"/>
+          <t>이케아</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>이케아</t>
+        </is>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -6025,22 +6025,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>북유럽 거실 플로어 깃털스탠드 인테리어 조명</t>
+          <t>한샘 한샘몰X스피아노 헤이즈 스탠드 조명SET 플로어 테이블 인테리어스탠드 장스탠드</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28876949541</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26858679216</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2887694/28876949541.20210916235401.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2685867/26858679216.20210421193743.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>39500</t>
+          <t>117070</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -6054,7 +6054,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>한샘</t>
+        </is>
+      </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
@@ -6083,22 +6087,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>한샘 한샘몰X스피아노 헤이즈 스탠드 조명SET 플로어 테이블 인테리어스탠드 장스탠드</t>
+          <t>북유럽 거실 플로어 깃털스탠드 인테리어 조명</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26858679216</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28876949541</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2685867/26858679216.20210421193743.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2887694/28876949541.20210916235401.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>117070</t>
+          <t>39500</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -6112,11 +6116,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>한샘</t>
-        </is>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
